--- a/sources/case/ResignRequest.xlsx
+++ b/sources/case/ResignRequest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -37,104 +37,109 @@
     <t>/attendance/v1/formrecords?form=resign_request</t>
   </si>
   <si>
+    <t>发起补卡审批</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>ResignRequest</t>
+  </si>
+  <si>
+    <t>BasePath</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>2017-11-02T10:17:00+08:00</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>sign_type</t>
+  </si>
+  <si>
+    <t>上班</t>
+  </si>
+  <si>
+    <t>sign_time</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>approval_create</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>approval_creating</t>
+  </si>
+  <si>
+    <t>ResignRequest_01</t>
+  </si>
+  <si>
+    <t>ResignRequest_02</t>
+  </si>
+  <si>
+    <t>下班</t>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResignRequest_03</t>
+  </si>
+  <si>
+    <t>${Auth.user_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>发起补卡审批</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>ResignRequest</t>
-  </si>
-  <si>
-    <t>BasePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://console.t.upvi.com/bapi</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>contentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>application/json</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>2017-11-02T10:17:00+08:00</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>sign_type</t>
-  </si>
-  <si>
-    <t>上班</t>
-  </si>
-  <si>
-    <t>sign_time</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>approval_create</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>approval_creating</t>
-  </si>
-  <si>
-    <t>ResignRequest_01</t>
-  </si>
-  <si>
-    <t>ResignRequest_02</t>
-  </si>
-  <si>
-    <t>下班</t>
-  </si>
-  <si>
-    <t>${Auth.tenant_id}</t>
-  </si>
-  <si>
-    <t>${Auth.tenant_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResignRequest_03</t>
-  </si>
-  <si>
-    <t>${Auth.user_id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -160,6 +165,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,17 +195,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -472,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,46 +504,49 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -537,7 +556,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,67 +573,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -648,115 +667,115 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/ResignRequest.xlsx
+++ b/sources/case/ResignRequest.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\丹\考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160"/>
+    <workbookView xWindow="2745" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>CaseID</t>
   </si>
@@ -37,6 +37,9 @@
     <t>/attendance/v1/formrecords?form=resign_request</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>发起补卡审批</t>
   </si>
   <si>
@@ -49,9 +52,21 @@
     <t>BasePath</t>
   </si>
   <si>
+    <t>http://console.t.upvi.com/bapi</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -61,6 +76,9 @@
     <t>comment</t>
   </si>
   <si>
+    <t>哦哦哦</t>
+  </si>
+  <si>
     <t>sign_type</t>
   </si>
   <si>
@@ -70,12 +88,6 @@
     <t>sign_time</t>
   </si>
   <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>approval_create</t>
   </si>
   <si>
@@ -97,50 +109,16 @@
     <t>下班</t>
   </si>
   <si>
-    <t>${Auth.tenant_id}</t>
-  </si>
-  <si>
-    <t>${Auth.tenant_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResignRequest_03</t>
-  </si>
-  <si>
-    <t>${Auth.user_id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ResignRequest_1</t>
+  </si>
+  <si>
+    <t>ResignRequest_2</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-03T09:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-07T18:30:00+08:00</t>
   </si>
 </sst>
 </file>
@@ -156,6 +134,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -163,19 +145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,20 +167,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -488,84 +456,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -573,213 +534,208 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/case/ResignRequest.xlsx
+++ b/sources/case/ResignRequest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\丹\考勤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t>CaseID</t>
   </si>
@@ -70,15 +70,9 @@
     <t>date</t>
   </si>
   <si>
-    <t>2017-11-02T10:17:00+08:00</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
-    <t>哦哦哦</t>
-  </si>
-  <si>
     <t>sign_type</t>
   </si>
   <si>
@@ -119,23 +113,62 @@
   </si>
   <si>
     <t>{Date.LastMonth}-07T18:30:00+08:00</t>
+  </si>
+  <si>
+    <t>默认流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResignRequest_03</t>
+  </si>
+  <si>
+    <t>指定人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Auth.user_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${Auth.tenant_id}</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>指定部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-03T09:30:00+08:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T10:17:00+08:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
@@ -145,9 +178,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,16 +222,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -509,232 +567,321 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
-    <col min="2" max="2" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.875" style="1"/>
+    <col min="5" max="5" width="27.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sources/case/ResignRequest.xlsx
+++ b/sources/case/ResignRequest.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="2745" yWindow="465" windowWidth="25605" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -514,55 +514,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -576,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/sources/case/ResignRequest.xlsx
+++ b/sources/case/ResignRequest.xlsx
@@ -46,9 +46,6 @@
     <t>API</t>
   </si>
   <si>
-    <t>ResignRequest</t>
-  </si>
-  <si>
     <t>BasePath</t>
   </si>
   <si>
@@ -156,6 +153,10 @@
   </si>
   <si>
     <t>{Date.LastMonth}-02T10:17:00+08:00</t>
+  </si>
+  <si>
+    <t>ResignRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -537,36 +538,36 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -597,95 +598,95 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -720,167 +721,167 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
